--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/195.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/195.xlsx
@@ -479,13 +479,13 @@
         <v>-13.74114289504196</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.7047404812493</v>
+        <v>-14.65441366912571</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06317307505042036</v>
+        <v>-0.1052910132922531</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.18327760130456</v>
+        <v>-11.11617954924071</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.69248632672806</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.85819536285717</v>
+        <v>-14.81281744120775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006608899095979585</v>
+        <v>-0.04123037548768747</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.88894954111971</v>
+        <v>-10.82634214893058</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.58631867999682</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.22039392097352</v>
+        <v>-15.17072172399202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04360774692669745</v>
+        <v>-0.0004085752271855877</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.52474786066858</v>
+        <v>-10.45661551668024</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.41762752027913</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.73084971646958</v>
+        <v>-15.67629409052811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1721872531352892</v>
+        <v>0.1217033333775935</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.33875860649902</v>
+        <v>-10.26769358667413</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.17600530215582</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.21623375202373</v>
+        <v>-16.15786826595532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1631928410830234</v>
+        <v>0.1151179050482052</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.18059049586812</v>
+        <v>-10.10654043099532</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.85116757282699</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.78836738620716</v>
+        <v>-16.72086347275522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3003085287444205</v>
+        <v>0.2376225827382361</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.03285695060209</v>
+        <v>-9.959435316265688</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.43116380599446</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.37551789175005</v>
+        <v>-17.30022405810729</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4491811043576876</v>
+        <v>0.3929758482581576</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.827386349804039</v>
+        <v>-9.754252746130156</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.92068307651401</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.10399980646937</v>
+        <v>-18.01871654575837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7279293241608773</v>
+        <v>0.6643661938642973</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.86433282842339</v>
+        <v>-9.789929271373861</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.31974847544145</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.58759019653421</v>
+        <v>-18.49650704566432</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7687642167242209</v>
+        <v>0.7130826527383599</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.517714110688692</v>
+        <v>-9.446387244806969</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.63050741503839</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.19270334157595</v>
+        <v>-19.09452416256584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.894267031765007</v>
+        <v>0.8386247446876712</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.470869851120996</v>
+        <v>-9.396701955522618</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.859305681277725</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.73994850805725</v>
+        <v>-19.63934725302143</v>
       </c>
       <c r="F12" t="n">
-        <v>1.05365272656018</v>
+        <v>0.990718026800003</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.979515725471016</v>
+        <v>-8.904378999462351</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.017530806249139</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.55336019131085</v>
+        <v>-20.44784932270938</v>
       </c>
       <c r="F13" t="n">
-        <v>1.23902664249618</v>
+        <v>1.171483452135715</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.488973322597225</v>
+        <v>-8.404436323148198</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.139133810592678</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.38537603690255</v>
+        <v>-21.27922364546183</v>
       </c>
       <c r="F14" t="n">
-        <v>1.560809261740123</v>
+        <v>1.485580889611565</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.03429073720692</v>
+        <v>-7.938232511257175</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.25411218909768</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.209222285521</v>
+        <v>-22.10041215660342</v>
       </c>
       <c r="F15" t="n">
-        <v>1.674214788955154</v>
+        <v>1.595896633355949</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.59512253068406</v>
+        <v>-7.488943954637662</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.394236189435214</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.06619206032902</v>
+        <v>-22.96034079185367</v>
       </c>
       <c r="F16" t="n">
-        <v>1.952949916455502</v>
+        <v>1.871515792779966</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.015513191578005</v>
+        <v>-6.916993612694017</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.586941090269664</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.67897729483601</v>
+        <v>-23.57563974850627</v>
       </c>
       <c r="F17" t="n">
-        <v>2.143600030436717</v>
+        <v>2.060909045688375</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.929483669605024</v>
+        <v>-6.827612461193553</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.859004375891839</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.491695086039</v>
+        <v>-24.38534631005566</v>
       </c>
       <c r="F18" t="n">
-        <v>2.56079935279116</v>
+        <v>2.469179417504761</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.528400972048746</v>
+        <v>-6.426804701996951</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.239710423402075</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.34257694002562</v>
+        <v>-25.23135782738515</v>
       </c>
       <c r="F19" t="n">
-        <v>2.82612796218158</v>
+        <v>2.733198796611009</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.224711915332068</v>
+        <v>-6.127881243514662</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.744335575639492</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.09573784560159</v>
+        <v>-25.98438780993271</v>
       </c>
       <c r="F20" t="n">
-        <v>3.047937756926104</v>
+        <v>2.955218068200999</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.11345352578308</v>
+        <v>-6.004826689105278</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.381173970851077</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.67982475227952</v>
+        <v>-26.56800339370833</v>
       </c>
       <c r="F21" t="n">
-        <v>3.365138070175443</v>
+        <v>3.276005672428972</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.782309910007302</v>
+        <v>-5.680896932195292</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.147946557373515</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.26630755037748</v>
+        <v>-27.15356973060738</v>
       </c>
       <c r="F22" t="n">
-        <v>3.570477747945074</v>
+        <v>3.489226916509322</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.637810163543172</v>
+        <v>-5.522938298409867</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.045426419419703</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.71293836952012</v>
+        <v>-27.60528036325261</v>
       </c>
       <c r="F23" t="n">
-        <v>3.752958264953052</v>
+        <v>3.673016663801473</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.438479852777892</v>
+        <v>-5.327993909096566</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.071122222321546</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.94253808445547</v>
+        <v>-27.8335446632981</v>
       </c>
       <c r="F24" t="n">
-        <v>3.888934922267219</v>
+        <v>3.808129229128086</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.276266220568906</v>
+        <v>-5.164183015940889</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.214722177925241</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.20946395479258</v>
+        <v>-28.10399236309964</v>
       </c>
       <c r="F25" t="n">
-        <v>4.204276128513033</v>
+        <v>4.122658712597713</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.982422575589206</v>
+        <v>-4.87405758496824</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.461072354082562</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.16929676967417</v>
+        <v>-28.06458453154604</v>
       </c>
       <c r="F26" t="n">
-        <v>4.365678037945832</v>
+        <v>4.27638853256526</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.986677574012767</v>
+        <v>-4.874175415693816</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.789533896454896</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.06090559444752</v>
+        <v>-27.95975446269234</v>
       </c>
       <c r="F27" t="n">
-        <v>4.318074424813316</v>
+        <v>4.234309871231953</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.800976350505724</v>
+        <v>-4.700506018498319</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.186122591114266</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.0099765363932</v>
+        <v>-27.90549995971623</v>
       </c>
       <c r="F28" t="n">
-        <v>4.296917263421087</v>
+        <v>4.22108664536181</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.715941843548714</v>
+        <v>-4.623313800943502</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.632783604804324</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.79606140026224</v>
+        <v>-27.69810479040045</v>
       </c>
       <c r="F29" t="n">
-        <v>4.285003267835116</v>
+        <v>4.211319787441882</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.59599016491282</v>
+        <v>-4.507669489942535</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.10967663605989</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.6501476850912</v>
+        <v>-27.55503210494606</v>
       </c>
       <c r="F30" t="n">
-        <v>4.18733468863584</v>
+        <v>4.120249728874835</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.549551766733217</v>
+        <v>-4.461794060785127</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.595343369450117</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.20528432683219</v>
+        <v>-27.11399169911684</v>
       </c>
       <c r="F31" t="n">
-        <v>4.04193157327563</v>
+        <v>3.978564827521676</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.640176687003645</v>
+        <v>-4.561570500741922</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.070278921669471</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.82880206631552</v>
+        <v>-26.74167279090383</v>
       </c>
       <c r="F32" t="n">
-        <v>3.955810405182756</v>
+        <v>3.896004765801751</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.7202361188808</v>
+        <v>-4.642546393817997</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.523594409932397</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.40911520642115</v>
+        <v>-26.32206448482651</v>
       </c>
       <c r="F33" t="n">
-        <v>3.822504577648301</v>
+        <v>3.763929614734419</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.6559136350194</v>
+        <v>-4.598294410212963</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.943878832531539</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.92259214051976</v>
+        <v>-25.83839554094462</v>
       </c>
       <c r="F34" t="n">
-        <v>3.692786041092479</v>
+        <v>3.638819568778884</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.475946840157033</v>
+        <v>-4.427596965762539</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.321574360640247</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.51550007595914</v>
+        <v>-25.43613453613259</v>
       </c>
       <c r="F35" t="n">
-        <v>3.453563483568461</v>
+        <v>3.398209227153643</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.481890745647177</v>
+        <v>-4.442181791128222</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.646005915315317</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.82649145430762</v>
+        <v>-24.74661531467025</v>
       </c>
       <c r="F36" t="n">
-        <v>3.236231256395808</v>
+        <v>3.189910688941781</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.751304153524216</v>
+        <v>-4.715968028154397</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.912858975651621</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.34773212399138</v>
+        <v>-24.27238592113724</v>
       </c>
       <c r="F37" t="n">
-        <v>3.105805735486533</v>
+        <v>3.057207107338046</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.745229325005655</v>
+        <v>-4.717670027523821</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.126062879425126</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.9326537546973</v>
+        <v>-23.86114359657579</v>
       </c>
       <c r="F38" t="n">
-        <v>3.032907793263802</v>
+        <v>2.985723133822221</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.889205379356117</v>
+        <v>-4.858163529318384</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.289354096616034</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.43305147825703</v>
+        <v>-23.36368845780156</v>
       </c>
       <c r="F39" t="n">
-        <v>3.004706972942724</v>
+        <v>2.956422560062438</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.760403303999215</v>
+        <v>-4.735161344120367</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.408412973418672</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.04998378941097</v>
+        <v>-22.98285955274143</v>
       </c>
       <c r="F40" t="n">
-        <v>3.09417977056308</v>
+        <v>3.035971392128766</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.746669478318245</v>
+        <v>-4.727738008409109</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.484717447483931</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.51961460129264</v>
+        <v>-22.45387814872434</v>
       </c>
       <c r="F41" t="n">
-        <v>3.111304502680058</v>
+        <v>3.059380429609772</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.674687997294435</v>
+        <v>-4.656070742653501</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.527353178146038</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.84363282096864</v>
+        <v>-21.78334276638249</v>
       </c>
       <c r="F42" t="n">
-        <v>3.206537913550773</v>
+        <v>3.157415593288617</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.702090187142168</v>
+        <v>-4.681941133068752</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.548339370043255</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.18062551276079</v>
+        <v>-21.12139593470482</v>
       </c>
       <c r="F43" t="n">
-        <v>3.324761408211559</v>
+        <v>3.274958288201633</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.745334063428389</v>
+        <v>-4.720589611057527</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.555291283840727</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.89153437371264</v>
+        <v>-20.83563024057847</v>
       </c>
       <c r="F44" t="n">
-        <v>3.231806058035304</v>
+        <v>3.18603536730063</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.796904644321948</v>
+        <v>-4.775158329301841</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.553181903231406</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.40548263071356</v>
+        <v>-20.35405606515126</v>
       </c>
       <c r="F45" t="n">
-        <v>3.358434811120479</v>
+        <v>3.308029445179834</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.745032940463029</v>
+        <v>-4.726598978061879</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.539529464246469</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.077546629134</v>
+        <v>-20.02381581827156</v>
       </c>
       <c r="F46" t="n">
-        <v>3.386635631441557</v>
+        <v>3.337487126573717</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.721074026262671</v>
+        <v>-4.714540967144649</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.51977497240307</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.53446481495637</v>
+        <v>-19.48649461734428</v>
       </c>
       <c r="F47" t="n">
-        <v>3.39454338235796</v>
+        <v>3.34767293818458</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.991482449155681</v>
+        <v>-4.988811619375968</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.49853620424939</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.05956771397843</v>
+        <v>-19.01336497724999</v>
       </c>
       <c r="F48" t="n">
-        <v>3.324290085309257</v>
+        <v>3.280797455269044</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106864914099813</v>
+        <v>-5.105228376244597</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.476312247632201</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.67229739592018</v>
+        <v>-18.61833092360658</v>
       </c>
       <c r="F49" t="n">
-        <v>3.343378662852494</v>
+        <v>3.300802494011201</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.395065776554729</v>
+        <v>-5.390090701474873</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.451478301067498</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.15787463266308</v>
+        <v>-18.10643497479793</v>
       </c>
       <c r="F50" t="n">
-        <v>3.484330395246517</v>
+        <v>3.433427521797886</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.311628530544408</v>
+        <v>-5.322979557108185</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.418738573843864</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.49295584824034</v>
+        <v>-17.43917266816652</v>
       </c>
       <c r="F51" t="n">
-        <v>3.501298019729394</v>
+        <v>3.446729301485079</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.524509374750874</v>
+        <v>-5.536226985794219</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.383825764117868</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.10078900891927</v>
+        <v>-17.04853762827794</v>
       </c>
       <c r="F52" t="n">
-        <v>3.330338729222135</v>
+        <v>3.280614163029259</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.815656005345178</v>
+        <v>-5.813613606101869</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.350913378898422</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.7106907534472</v>
+        <v>-16.65529722012386</v>
       </c>
       <c r="F53" t="n">
-        <v>3.365033331752709</v>
+        <v>3.318477102847531</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845873040303882</v>
+        <v>-5.846514563143127</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.321070208510321</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.51369087258775</v>
+        <v>-16.4509525573702</v>
       </c>
       <c r="F54" t="n">
-        <v>3.100045122236173</v>
+        <v>3.055583661785672</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.022867882421177</v>
+        <v>-6.028890341728371</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.292481306241674</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.22338214937531</v>
+        <v>-16.1562317281001</v>
       </c>
       <c r="F55" t="n">
-        <v>2.952678161449705</v>
+        <v>2.906881286109347</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.165521614184624</v>
+        <v>-6.178221147941098</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.260758080170252</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.8940452713917</v>
+        <v>-15.81965480664501</v>
       </c>
       <c r="F56" t="n">
-        <v>2.898973535192944</v>
+        <v>2.853071921429853</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.475652083899432</v>
+        <v>-6.477746852354107</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.231354661786551</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.34738925853827</v>
+        <v>-15.27361413202514</v>
       </c>
       <c r="F57" t="n">
-        <v>2.93550106012136</v>
+        <v>2.882058279921434</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.7331514961905</v>
+        <v>-6.736136541238413</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.204857247734195</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.14537502569043</v>
+        <v>-15.06709614699975</v>
       </c>
       <c r="F58" t="n">
-        <v>2.777293672581942</v>
+        <v>2.721965600772808</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709009289750357</v>
+        <v>-6.710200689308953</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.178962959555646</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.80091653792462</v>
+        <v>-14.71970498339739</v>
       </c>
       <c r="F59" t="n">
-        <v>2.903320179736397</v>
+        <v>2.840896079787048</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.819010818226539</v>
+        <v>-6.822742124536431</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.147188363276149</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.74537898927002</v>
+        <v>-14.65881268288053</v>
       </c>
       <c r="F60" t="n">
-        <v>2.722227446829642</v>
+        <v>2.659881900697343</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823658585735352</v>
+        <v>-6.823449108889885</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.102973907527183</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.4011692552582</v>
+        <v>-14.31608237908982</v>
       </c>
       <c r="F61" t="n">
-        <v>2.608245858289575</v>
+        <v>2.545167143198139</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.231143419381234</v>
+        <v>-7.223654622155767</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.049496904451368</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.19480837786691</v>
+        <v>-14.10080564346332</v>
       </c>
       <c r="F62" t="n">
-        <v>2.562108583075333</v>
+        <v>2.495940084513249</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176797270285229</v>
+        <v>-7.178315977414869</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.984460301153479</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.87587988064247</v>
+        <v>-13.78109160806837</v>
       </c>
       <c r="F63" t="n">
-        <v>2.489681963754904</v>
+        <v>2.423880049672389</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.378130703385293</v>
+        <v>-7.37204278256389</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.90509300745589</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.68867304230862</v>
+        <v>-13.58856929478079</v>
       </c>
       <c r="F64" t="n">
-        <v>2.40128273496757</v>
+        <v>2.332914729528076</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.394325882000508</v>
+        <v>-7.404027278406227</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.805209894631291</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.49910958946327</v>
+        <v>-13.39689798117792</v>
       </c>
       <c r="F65" t="n">
-        <v>2.15826340961945</v>
+        <v>2.105553798378661</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741847968631284</v>
+        <v>-7.740774399798263</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.683273436966619</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.28364956159699</v>
+        <v>-13.1795133847939</v>
       </c>
       <c r="F66" t="n">
-        <v>2.091780695789165</v>
+        <v>2.038835423097225</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.785576260122649</v>
+        <v>-7.791768919366787</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.545766049267001</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.11394713216253</v>
+        <v>-13.00877666343495</v>
       </c>
       <c r="F67" t="n">
-        <v>2.367766439692751</v>
+        <v>2.293585451791531</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.864103892567322</v>
+        <v>-7.859587048086927</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.394717245938399</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.06428802748387</v>
+        <v>-12.95528151402366</v>
       </c>
       <c r="F68" t="n">
-        <v>2.076672178309813</v>
+        <v>2.016866538928809</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.763712114376967</v>
+        <v>-7.769852404409737</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.232564535829892</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.92403018714045</v>
+        <v>-12.81421195090406</v>
       </c>
       <c r="F69" t="n">
-        <v>2.136215971633983</v>
+        <v>2.060306799757656</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.83602090297182</v>
+        <v>-7.842200469913115</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.057780030866075</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.90162925697826</v>
+        <v>-12.78449242345334</v>
       </c>
       <c r="F70" t="n">
-        <v>2.134618710687293</v>
+        <v>2.063291844805569</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.744859198284882</v>
+        <v>-7.754115456393982</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.876496601033188</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.59555740114439</v>
+        <v>-12.48203404320378</v>
       </c>
       <c r="F71" t="n">
-        <v>2.090157250236791</v>
+        <v>2.017233123408377</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.452979398731441</v>
+        <v>-7.476087313247088</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.696976691413309</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.52760834939583</v>
+        <v>-12.41519783719677</v>
       </c>
       <c r="F72" t="n">
-        <v>2.098745800900963</v>
+        <v>2.029880287953485</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.518126697671869</v>
+        <v>-7.535395445120106</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.523150852232038</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.21073534371754</v>
+        <v>-12.12553063682358</v>
       </c>
       <c r="F73" t="n">
-        <v>2.074839255911972</v>
+        <v>2.005711896907658</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.251410304180226</v>
+        <v>-7.282779461789001</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.35714407923048</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.41261865353695</v>
+        <v>-12.32682479301512</v>
       </c>
       <c r="F74" t="n">
-        <v>2.098588693266863</v>
+        <v>2.031660841139959</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.200913292119688</v>
+        <v>-7.226325451935478</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.197468062531113</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.54542697356342</v>
+        <v>-12.45924034395634</v>
       </c>
       <c r="F75" t="n">
-        <v>2.030587272306938</v>
+        <v>1.96363323557435</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.129128195638504</v>
+        <v>-7.149054680563611</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.051542891223759</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.80371192402499</v>
+        <v>-12.72494863012917</v>
       </c>
       <c r="F76" t="n">
-        <v>2.010739341198881</v>
+        <v>1.94807957979838</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.781750124338987</v>
+        <v>-6.815894850150208</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.926565652737527</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.37915791082738</v>
+        <v>-13.30386407718461</v>
       </c>
       <c r="F77" t="n">
-        <v>2.003748051481399</v>
+        <v>1.93928155228874</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.725283022182622</v>
+        <v>-6.748678967360787</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.827175001207676</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.87117974392229</v>
+        <v>-13.79942083204678</v>
       </c>
       <c r="F78" t="n">
-        <v>2.054362894267512</v>
+        <v>1.987775442014494</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.741556754614888</v>
+        <v>-6.75060353587852</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.755956197972008</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.35969283985561</v>
+        <v>-14.2885885431222</v>
       </c>
       <c r="F79" t="n">
-        <v>2.099295677620316</v>
+        <v>2.03409600946852</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.645328328728201</v>
+        <v>-6.646964866583417</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.713282382143903</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.90805085207847</v>
+        <v>-14.83787610884681</v>
       </c>
       <c r="F80" t="n">
-        <v>1.988272949522479</v>
+        <v>1.932237893359891</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.293289397617029</v>
+        <v>-6.302912240205697</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.708915930755955</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.68007776604937</v>
+        <v>-15.61105514546779</v>
       </c>
       <c r="F81" t="n">
-        <v>2.087093651371827</v>
+        <v>2.027654596470391</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.235329772936708</v>
+        <v>-6.239558586754585</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.74938991309272</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.40905718827668</v>
+        <v>-16.34239118220661</v>
       </c>
       <c r="F82" t="n">
-        <v>2.058316769725713</v>
+        <v>2.004690697286004</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.134623779478151</v>
+        <v>-6.140318931214302</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.838903766286724</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.28567850965013</v>
+        <v>-17.21826624231808</v>
       </c>
       <c r="F83" t="n">
-        <v>2.039463853633628</v>
+        <v>1.983507351288091</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.839209058157444</v>
+        <v>-5.848229654815393</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.976716511269059</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.33936013465508</v>
+        <v>-18.27355822057257</v>
       </c>
       <c r="F84" t="n">
-        <v>2.051430218430966</v>
+        <v>2.002255528957443</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.728277976179498</v>
+        <v>-5.730071621668815</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.161892609605715</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.13852739241688</v>
+        <v>-19.07391687789297</v>
       </c>
       <c r="F85" t="n">
-        <v>2.078033777805353</v>
+        <v>2.025559828015715</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.59114919621526</v>
+        <v>-5.586357413375188</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.401328090228495</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.28723295144709</v>
+        <v>-20.21690110058134</v>
       </c>
       <c r="F86" t="n">
-        <v>2.065700828528447</v>
+        <v>2.013986232303629</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252726260059482</v>
+        <v>-5.25179670655772</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.695659020136019</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.35322134112327</v>
+        <v>-21.28226105972111</v>
       </c>
       <c r="F87" t="n">
-        <v>1.887697879092339</v>
+        <v>1.85478382974824</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.891273963205109</v>
+        <v>-4.89871039121921</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.042751004123802</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.6950907362803</v>
+        <v>-22.62604193109303</v>
       </c>
       <c r="F88" t="n">
-        <v>1.982145751792551</v>
+        <v>1.945304011595934</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661896817418069</v>
+        <v>-4.661713525178285</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.432008004051195</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.07518965573517</v>
+        <v>-24.01425807830977</v>
       </c>
       <c r="F89" t="n">
-        <v>1.849154139526298</v>
+        <v>1.805399663429249</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.276839098540063</v>
+        <v>-4.28091080472384</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.857479592905837</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.54410675766831</v>
+        <v>-25.48503428724644</v>
       </c>
       <c r="F90" t="n">
-        <v>1.63428326528789</v>
+        <v>1.596734540737819</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.163944171135859</v>
+        <v>-4.160487803185644</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.317016719135545</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.18736096424187</v>
+        <v>-27.12929660113882</v>
       </c>
       <c r="F91" t="n">
-        <v>1.429022141335308</v>
+        <v>1.395217815397972</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.062020593513022</v>
+        <v>-4.064455761841583</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.801727458787564</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.780026512635</v>
+        <v>-28.73209559193144</v>
       </c>
       <c r="F92" t="n">
-        <v>1.305849756200349</v>
+        <v>1.275658905847329</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.791965662796738</v>
+        <v>-3.796652707214077</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.300208838904062</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.62851565855546</v>
+        <v>-30.58477427476126</v>
       </c>
       <c r="F93" t="n">
-        <v>1.166874961535427</v>
+        <v>1.138176633706364</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.782159527968286</v>
+        <v>-3.791690724437062</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.790253396406726</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.70534765833848</v>
+        <v>-32.6676418261543</v>
       </c>
       <c r="F94" t="n">
-        <v>1.052919557601043</v>
+        <v>1.02634218283234</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.775705022667315</v>
+        <v>-3.789347202228393</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.26217838301665</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.73534849085662</v>
+        <v>-34.70344254883134</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6487863534826432</v>
+        <v>0.6215674558746948</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.760792889730589</v>
+        <v>-3.776189437872458</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.70561804447955</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.70522946872557</v>
+        <v>-36.67785346348352</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4259029899050987</v>
+        <v>0.393290063526359</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.974459272107558</v>
+        <v>-3.986373267693529</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.10787437341074</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.79311137210699</v>
+        <v>-38.77006891910555</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04324116244712913</v>
+        <v>0.01582588029655474</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.969981704535688</v>
+        <v>-3.990392604665939</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.45695652307759</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01395870314899</v>
+        <v>-41.00251603046532</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1655679755755599</v>
+        <v>-0.198063071228724</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.170058276562946</v>
+        <v>-4.191084514926757</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.73603823299271</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39228025277126</v>
+        <v>-43.38511876311684</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.08641191259448414</v>
+        <v>-0.1185142391623965</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.49913330848973</v>
+        <v>-4.519269270260305</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.94633210603272</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79621034675195</v>
+        <v>-45.796537654323</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3569905354244368</v>
+        <v>-0.3773228817376373</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.681509087074974</v>
+        <v>-4.707444939004434</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.08797564371677</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19478568887038</v>
+        <v>-48.19553195013236</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2916861288499071</v>
+        <v>-0.3205939335244383</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.957507923281401</v>
+        <v>-4.991063495464745</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.16559704405274</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40976766823928</v>
+        <v>-50.41767541915568</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4386865051568075</v>
+        <v>-0.4654471721652955</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.316433405687322</v>
+        <v>-5.346257671560774</v>
       </c>
     </row>
   </sheetData>
